--- a/doc/object_categories.xlsx
+++ b/doc/object_categories.xlsx
@@ -5,17 +5,17 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcdon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcdon\Google Drive\Arbeit\01_PropTechTools GmbH\Webserver\PTT-API-Solutions\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7DB728-1DF2-4F6B-AA4A-077FF87B5B52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4BAC83-3075-4850-9775-2579F97838A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objektkategorie" sheetId="8" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -579,7 +579,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,12 +607,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDA9694"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -852,9 +846,6 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,6 +872,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1227,7 +1221,7 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,50 +1239,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1320,7 +1314,7 @@
       <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1352,7 +1346,7 @@
       <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1384,7 +1378,7 @@
       <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1416,7 +1410,7 @@
       <c r="I6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1448,7 +1442,7 @@
       <c r="I7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1480,7 +1474,7 @@
       <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1512,7 +1506,7 @@
       <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1544,7 +1538,7 @@
       <c r="I10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1576,7 +1570,7 @@
       <c r="I11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1608,7 +1602,7 @@
       <c r="I12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1640,7 +1634,7 @@
       <c r="I13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1672,7 +1666,7 @@
       <c r="I14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1704,7 +1698,7 @@
       <c r="I15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1736,7 +1730,7 @@
       <c r="I16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1768,7 +1762,7 @@
       <c r="I17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1800,7 +1794,7 @@
       <c r="I18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1832,7 +1826,7 @@
       <c r="I19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1864,7 +1858,7 @@
       <c r="I20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1896,7 +1890,7 @@
       <c r="I21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>3</v>
       </c>
     </row>
@@ -1928,7 +1922,7 @@
       <c r="I22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="12">
         <v>3</v>
       </c>
     </row>
@@ -1960,7 +1954,7 @@
       <c r="I23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="12">
         <v>3</v>
       </c>
     </row>
@@ -1992,7 +1986,7 @@
       <c r="I24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2024,7 +2018,7 @@
       <c r="I25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2056,7 +2050,7 @@
       <c r="I26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2088,7 +2082,7 @@
       <c r="I27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2120,7 +2114,7 @@
       <c r="I28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="12">
         <v>4</v>
       </c>
     </row>
@@ -2149,10 +2143,10 @@
       <c r="H29" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="12">
         <v>4</v>
       </c>
     </row>
@@ -2181,10 +2175,10 @@
       <c r="H30" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="12">
         <v>4</v>
       </c>
     </row>
@@ -2213,10 +2207,10 @@
       <c r="H31" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="12">
         <v>4</v>
       </c>
     </row>
@@ -2245,10 +2239,10 @@
       <c r="H32" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="13">
+      <c r="I32" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2277,10 +2271,10 @@
       <c r="H33" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="13">
+      <c r="I33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2309,10 +2303,10 @@
       <c r="H34" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="13">
+      <c r="I34" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2341,10 +2335,10 @@
       <c r="H35" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="13">
+      <c r="I35" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2373,10 +2367,10 @@
       <c r="H36" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="13">
+      <c r="I36" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2405,10 +2399,10 @@
       <c r="H37" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="13">
+      <c r="I37" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2437,10 +2431,10 @@
       <c r="H38" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="13">
+      <c r="I38" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2469,10 +2463,10 @@
       <c r="H39" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="13">
+      <c r="I39" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2501,10 +2495,10 @@
       <c r="H40" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="13">
+      <c r="I40" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2533,10 +2527,10 @@
       <c r="H41" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="13">
+      <c r="I41" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2565,10 +2559,10 @@
       <c r="H42" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="13">
+      <c r="I42" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2597,10 +2591,10 @@
       <c r="H43" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2629,10 +2623,10 @@
       <c r="H44" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2661,10 +2655,10 @@
       <c r="H45" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2693,10 +2687,10 @@
       <c r="H46" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2725,10 +2719,10 @@
       <c r="H47" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2757,10 +2751,10 @@
       <c r="H48" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2789,10 +2783,10 @@
       <c r="H49" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="13">
+      <c r="I49" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2821,10 +2815,10 @@
       <c r="H50" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I50" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="13">
+      <c r="I50" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2853,10 +2847,10 @@
       <c r="H51" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="13">
+      <c r="I51" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2885,10 +2879,10 @@
       <c r="H52" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I52" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="13">
+      <c r="I52" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2917,10 +2911,10 @@
       <c r="H53" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I53" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="13">
+      <c r="I53" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2949,10 +2943,10 @@
       <c r="H54" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="13">
+      <c r="I54" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2981,10 +2975,10 @@
       <c r="H55" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="13">
+      <c r="I55" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3013,10 +3007,10 @@
       <c r="H56" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="13">
+      <c r="I56" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3045,10 +3039,10 @@
       <c r="H57" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="13">
+      <c r="I57" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3077,10 +3071,10 @@
       <c r="H58" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="13">
+      <c r="I58" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3109,10 +3103,10 @@
       <c r="H59" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="13">
+      <c r="I59" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3141,10 +3135,10 @@
       <c r="H60" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" s="13">
+      <c r="I60" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3173,10 +3167,10 @@
       <c r="H61" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" s="13">
+      <c r="I61" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3205,10 +3199,10 @@
       <c r="H62" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" s="13">
+      <c r="I62" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3237,10 +3231,10 @@
       <c r="H63" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I63" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" s="13">
+      <c r="I63" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3269,10 +3263,10 @@
       <c r="H64" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I64" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J64" s="13">
+      <c r="I64" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3301,10 +3295,10 @@
       <c r="H65" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I65" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="12">
         <v>6</v>
       </c>
     </row>
@@ -3333,10 +3327,10 @@
       <c r="H66" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="12">
         <v>6</v>
       </c>
     </row>
@@ -3365,10 +3359,10 @@
       <c r="H67" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="12">
         <v>7</v>
       </c>
     </row>
@@ -3397,10 +3391,10 @@
       <c r="H68" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I68" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68" s="13">
+      <c r="I68" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3429,10 +3423,10 @@
       <c r="H69" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I69" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" s="13">
+      <c r="I69" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3461,10 +3455,10 @@
       <c r="H70" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="I70" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="12">
         <v>2</v>
       </c>
     </row>
@@ -3493,10 +3487,10 @@
       <c r="H71" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I71" s="6" t="s">
+      <c r="I71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J71" s="12">
         <v>2</v>
       </c>
     </row>
@@ -3525,10 +3519,10 @@
       <c r="H72" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I72" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="12">
         <v>2</v>
       </c>
     </row>
@@ -3557,10 +3551,10 @@
       <c r="H73" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I73" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73" s="13">
+      <c r="I73" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3589,10 +3583,10 @@
       <c r="H74" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I74" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74" s="13">
+      <c r="I74" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3621,10 +3615,10 @@
       <c r="H75" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75" s="13">
+      <c r="I75" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="12">
         <v>3</v>
       </c>
     </row>
